--- a/Datalogger V3/Commands.xlsx
+++ b/Datalogger V3/Commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>sudo apt-get update; sudo apt-get upgrade</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>cgi programming with python</t>
+  </si>
+  <si>
+    <t>sudo apt-get install zip</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +665,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
